--- a/out/BPI12/results/result_2/prova_2.1_mac.xlsx
+++ b/out/BPI12/results/result_2/prova_2.1_mac.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiaragobbi/Desktop/Università/magistrale/primo anno/secondo semestre/big data analytics e machine learning/progetto/codice/gtransformers/out/BPI12/results/result_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5AFD2E0-05DE-9D42-853E-67EFB18E17B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2E326E-F56C-4E47-B5E2-9D28E0A180B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{B8E86814-7E8C-4C9C-AFFC-0BA4156C50F5}"/>
   </bookViews>
@@ -648,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5CE9AF-DD69-40FB-B66A-911F2F6F5C3E}">
   <dimension ref="A1:Z32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2573,7 +2573,7 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <f>B2/Y2</f>
@@ -2670,7 +2670,7 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="26" t="e">
         <f>B2/B25</f>
